--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1032.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1032.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.719370454219206</v>
+        <v>1.168739795684814</v>
       </c>
       <c r="B1">
-        <v>3.454555499908216</v>
+        <v>1.083346486091614</v>
       </c>
       <c r="C1">
-        <v>2.908484427104622</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.319352683691905</v>
+        <v>1.997352123260498</v>
       </c>
       <c r="E1">
-        <v>1.344240873711401</v>
+        <v>0.9817475080490112</v>
       </c>
     </row>
   </sheetData>
